--- a/Org. matter proc/Datos hojarasca finales.xlsx
+++ b/Org. matter proc/Datos hojarasca finales.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{63EB2474-DB4C-477C-87F2-88A1CC15109A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1782F5EB-DCC5-4A79-BBCB-2068998FCA95}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descomposicion" sheetId="1" r:id="rId1"/>
@@ -7806,20 +7806,20 @@
       <selection pane="bottomRight" activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="2"/>
-    <col min="4" max="4" width="11.140625" style="2" customWidth="1"/>
-    <col min="5" max="7" width="8.85546875" style="2"/>
-    <col min="8" max="8" width="1.85546875" style="2" customWidth="1"/>
-    <col min="9" max="10" width="8.85546875" style="2"/>
-    <col min="11" max="11" width="2.140625" style="16" customWidth="1"/>
-    <col min="13" max="13" width="1.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" style="2"/>
+    <col min="4" max="4" width="11.1796875" style="2" customWidth="1"/>
+    <col min="5" max="7" width="8.81640625" style="2"/>
+    <col min="8" max="8" width="1.81640625" style="2" customWidth="1"/>
+    <col min="9" max="10" width="8.81640625" style="2"/>
+    <col min="11" max="11" width="2.1796875" style="16" customWidth="1"/>
+    <col min="13" max="13" width="1.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -7830,7 +7830,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="17"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>18</v>
       </c>
@@ -7841,7 +7841,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="17"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="E3" s="5"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -7856,7 +7856,7 @@
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="F4" s="3" t="s">
         <v>0</v>
       </c>
@@ -7884,7 +7884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="E5" s="2" t="s">
@@ -7927,7 +7927,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
         <v>19</v>
       </c>
@@ -7966,7 +7966,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="F7" s="3"/>
@@ -7984,7 +7984,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>20</v>
       </c>
@@ -8023,7 +8023,7 @@
       </c>
       <c r="S8" s="2"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>20</v>
       </c>
@@ -8059,7 +8059,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>20</v>
       </c>
@@ -8095,7 +8095,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>20</v>
       </c>
@@ -8131,7 +8131,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
         <v>20</v>
       </c>
@@ -8167,7 +8167,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>20</v>
       </c>
@@ -8212,7 +8212,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="H14" s="3"/>
       <c r="I14"/>
@@ -8234,7 +8234,7 @@
         <v>0.40717996717907567</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -8304,7 +8304,7 @@
         <v>3.2261395133136452</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -8365,7 +8365,7 @@
         <v>5.0214277049403648</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -8426,7 +8426,7 @@
         <v>4.2593838608294501</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>10.380577608097125</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -8556,7 +8556,7 @@
         <v>5.0214277049403533</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -8606,7 +8606,7 @@
         <v>93.667647140495376</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -8667,7 +8667,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -8728,7 +8728,7 @@
         <v>0.61472837401636615</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>0.46923246239412852</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -8858,7 +8858,7 @@
         <v>1.2929700501270427</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -8919,7 +8919,7 @@
         <v>1.1832106401095588</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -8980,7 +8980,7 @@
         <v>1.0806138612166751</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>5.7934059179462967</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -9099,7 +9099,7 @@
         <v>94.074014373209025</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -9152,7 +9152,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -9221,7 +9221,7 @@
         <v>2.7628604625270454</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -9282,7 +9282,7 @@
         <v>3.6770737490358081</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -9343,7 +9343,7 @@
         <v>6.0534152339013279</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -9412,7 +9412,7 @@
         <v>4.7441271705095955</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -9473,7 +9473,7 @@
         <v>17.444714113485862</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -9534,7 +9534,7 @@
         <v>5.7934059179462967</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -9592,7 +9592,7 @@
         <v>0.46923246239412852</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -9645,7 +9645,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -9706,7 +9706,7 @@
         <v>2.5455533376875259</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>25</v>
       </c>
@@ -9775,7 +9775,7 @@
         <v>0.23508546365945412</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>25</v>
       </c>
@@ -9836,7 +9836,7 @@
         <v>1.4268808620634776</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>25</v>
       </c>
@@ -9897,7 +9897,7 @@
         <v>3.0578881108079736</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -9966,7 +9966,7 @@
         <v>9.21292504374596</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -10027,7 +10027,7 @@
         <v>10.462623754341212</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -10077,7 +10077,7 @@
         <v>88.561642861448405</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>27</v>
       </c>
@@ -10138,7 +10138,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -10199,7 +10199,7 @@
         <v>0.61893149193949282</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -10260,7 +10260,7 @@
         <v>0.61893149193949282</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>28</v>
       </c>
@@ -10329,7 +10329,7 @@
         <v>2.746152348578609</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -10390,7 +10390,7 @@
         <v>6.1926044374348441</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -10451,7 +10451,7 @@
         <v>8.389709954061134</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>23</v>
       </c>
@@ -10520,7 +10520,7 @@
         <v>6.3342337510240405</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>23</v>
       </c>
@@ -10570,7 +10570,7 @@
         <v>75.735473895307607</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>23</v>
       </c>
@@ -10623,7 +10623,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>24</v>
       </c>
@@ -10692,7 +10692,7 @@
         <v>0.22737508588956956</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>24</v>
       </c>
@@ -10753,7 +10753,7 @@
         <v>0.22737508588956956</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>24</v>
       </c>
@@ -10814,7 +10814,7 @@
         <v>5.5618955250548305</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>25</v>
       </c>
@@ -10883,7 +10883,7 @@
         <v>1.6649685973266395</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>25</v>
       </c>
@@ -10944,7 +10944,7 @@
         <v>5.4844494412588256</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>25</v>
       </c>
@@ -11005,7 +11005,7 @@
         <v>6.0155207707207525</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>26</v>
       </c>
@@ -11063,7 +11063,7 @@
         <v>1.4268808620634776</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>26</v>
       </c>
@@ -11113,7 +11113,7 @@
         <v>81.435993435814638</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>26</v>
       </c>
@@ -11163,7 +11163,7 @@
         <v>80.50321064247612</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>27</v>
       </c>
@@ -11221,7 +11221,7 @@
         <v>2.746152348578609</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>27</v>
       </c>
@@ -11271,7 +11271,7 @@
         <v>82.492548240870093</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>27</v>
       </c>
@@ -11321,7 +11321,7 @@
         <v>87.950872910679806</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>28</v>
       </c>
@@ -11379,7 +11379,7 @@
         <v>5.5618955250548305</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>28</v>
       </c>
@@ -11429,7 +11429,7 @@
         <v>93.854982434776375</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>28</v>
       </c>
@@ -11479,7 +11479,7 @@
         <v>83.064713304530926</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>23</v>
       </c>
@@ -11536,7 +11536,7 @@
         <v>4.2593838608294501</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>23</v>
       </c>
@@ -11585,7 +11585,7 @@
         <v>81.2324034522251</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>23</v>
       </c>
@@ -11634,7 +11634,7 @@
         <v>73.958836353883569</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>24</v>
       </c>
@@ -11691,7 +11691,7 @@
         <v>1.1832106401095588</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>24</v>
       </c>
@@ -11740,7 +11740,7 @@
         <v>76.600223366522258</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>24</v>
       </c>
@@ -11789,7 +11789,7 @@
         <v>76.142653862486696</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>25</v>
       </c>
@@ -11846,7 +11846,7 @@
         <v>4.7441271705095955</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>25</v>
       </c>
@@ -11895,7 +11895,7 @@
         <v>67.795464535315674</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>25</v>
       </c>
@@ -11944,7 +11944,7 @@
         <v>65.352384732241248</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>26</v>
       </c>
@@ -12001,7 +12001,7 @@
         <v>3.0578881108079736</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>26</v>
       </c>
@@ -12050,7 +12050,7 @@
         <v>67.391117828345614</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>26</v>
       </c>
@@ -12099,7 +12099,7 @@
         <v>66.644226165037935</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>27</v>
       </c>
@@ -12156,7 +12156,7 @@
         <v>6.1926044374348441</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>27</v>
       </c>
@@ -12205,7 +12205,7 @@
         <v>72.333367423028974</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>27</v>
       </c>
@@ -12254,7 +12254,7 @@
         <v>84.693433173247229</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>28</v>
       </c>
@@ -12311,7 +12311,7 @@
         <v>1.6649685973266395</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>28</v>
       </c>
@@ -12360,7 +12360,7 @@
         <v>80.257528460945082</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>28</v>
       </c>
@@ -12409,7 +12409,7 @@
         <v>83.471893271710002</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>23</v>
       </c>
@@ -12466,7 +12466,7 @@
         <v>10.380577608097125</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>23</v>
       </c>
@@ -12515,7 +12515,7 @@
         <v>67.05059339775157</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>23</v>
       </c>
@@ -12564,7 +12564,7 @@
         <v>70.645724305569203</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>24</v>
       </c>
@@ -12621,7 +12621,7 @@
         <v>1.0806138612166751</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>24</v>
       </c>
@@ -12670,7 +12670,7 @@
         <v>63.520074879935422</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>24</v>
       </c>
@@ -12719,7 +12719,7 @@
         <v>63.596471919685584</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>25</v>
       </c>
@@ -12776,7 +12776,7 @@
         <v>17.444714113485862</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>25</v>
       </c>
@@ -12825,7 +12825,7 @@
         <v>46.622106242003881</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>25</v>
       </c>
@@ -12874,7 +12874,7 @@
         <v>18.286525472114064</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>26</v>
       </c>
@@ -12931,7 +12931,7 @@
         <v>9.21292504374596</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>26</v>
       </c>
@@ -12980,7 +12980,7 @@
         <v>41.125176685086387</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>26</v>
       </c>
@@ -13029,7 +13029,7 @@
         <v>38.604887107796358</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>27</v>
       </c>
@@ -13086,7 +13086,7 @@
         <v>8.389709954061134</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>27</v>
       </c>
@@ -13135,7 +13135,7 @@
         <v>51.304675864563229</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>27</v>
       </c>
@@ -13184,7 +13184,7 @@
         <v>63.316484896345884</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>28</v>
       </c>
@@ -13241,7 +13241,7 @@
         <v>5.4844494412588256</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>28</v>
       </c>
@@ -13290,7 +13290,7 @@
         <v>66.573924633778461</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>28</v>
       </c>
@@ -13339,7 +13339,7 @@
         <v>66.714247610515486</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>23</v>
       </c>
@@ -13396,7 +13396,7 @@
         <v>5.0214277049403533</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>23</v>
       </c>
@@ -13445,7 +13445,7 @@
         <v>76.34624384607622</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>23</v>
       </c>
@@ -13494,7 +13494,7 @@
         <v>67.184694584547074</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>24</v>
       </c>
@@ -13551,7 +13551,7 @@
         <v>5.7934059179462967</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>24</v>
       </c>
@@ -13600,7 +13600,7 @@
         <v>52.827740252773971</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>24</v>
       </c>
@@ -13649,7 +13649,7 @@
         <v>64.409206385112881</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>25</v>
       </c>
@@ -13706,7 +13706,7 @@
         <v>14.904139154918573</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>25</v>
       </c>
@@ -13755,7 +13755,7 @@
         <v>18.323098523058295</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>25</v>
       </c>
@@ -13804,7 +13804,7 @@
         <v>7.5177938052024489</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>26</v>
       </c>
@@ -13861,7 +13861,7 @@
         <v>10.462623754341212</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>26</v>
       </c>
@@ -13910,7 +13910,7 @@
         <v>39.700046799959637</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>26</v>
       </c>
@@ -13959,7 +13959,7 @@
         <v>32.777987357915393</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>27</v>
       </c>
@@ -14016,7 +14016,7 @@
         <v>6.3342337510240405</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>27</v>
       </c>
@@ -14060,7 +14060,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>27</v>
       </c>
@@ -14109,7 +14109,7 @@
         <v>63.723664863524945</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>28</v>
       </c>
@@ -14166,7 +14166,7 @@
         <v>6.0155207707207525</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>28</v>
       </c>
@@ -14215,7 +14215,7 @@
         <v>63.799655536042401</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>28</v>
       </c>
@@ -14264,19 +14264,19 @@
         <v>64.538024797883097</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
       <c r="R123" s="2"/>
       <c r="S123" s="2"/>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
       <c r="R126" s="2"/>
       <c r="S126" s="2"/>
     </row>
-    <row r="129" spans="18:19" x14ac:dyDescent="0.25">
+    <row r="129" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R129" s="2"/>
       <c r="S129" s="2"/>
     </row>
-    <row r="132" spans="18:19" x14ac:dyDescent="0.25">
+    <row r="132" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R132" s="2"/>
       <c r="S132" s="2"/>
     </row>
@@ -14295,9 +14295,9 @@
       <selection activeCell="F26" sqref="F26:F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -14356,7 +14356,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -14415,7 +14415,7 @@
         <v>98.23</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -14474,7 +14474,7 @@
         <v>93.651392451186808</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4</v>
       </c>
@@ -14533,7 +14533,7 @@
         <v>88.58805673157481</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>8</v>
       </c>
@@ -14592,7 +14592,7 @@
         <v>83.064713304530926</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>16</v>
       </c>
@@ -14651,7 +14651,7 @@
         <v>83.471893271710002</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>32</v>
       </c>
@@ -14710,7 +14710,7 @@
         <v>66.714247610515486</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>44</v>
       </c>
@@ -14767,16 +14767,16 @@
         <v>64.538024797883097</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="23"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>59</v>
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>0</v>
       </c>
@@ -14853,7 +14853,7 @@
         <v>4.5873116676867784</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2</v>
       </c>
@@ -14930,7 +14930,7 @@
         <v>4.5395792974521365</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>4</v>
       </c>
@@ -15007,7 +15007,7 @@
         <v>4.4839970486553575</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>8</v>
       </c>
@@ -15084,7 +15084,7 @@
         <v>4.4196199823731579</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>16</v>
       </c>
@@ -15161,7 +15161,7 @@
         <v>4.4245099676673494</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>32</v>
       </c>
@@ -15238,7 +15238,7 @@
         <v>4.2004185374648308</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>44</v>
       </c>
@@ -15314,10 +15314,10 @@
         <v>4.1672545818462767</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="24" t="s">
         <v>60</v>
       </c>
@@ -15376,7 +15376,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="20" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="24" t="s">
         <v>61</v>
       </c>
@@ -15435,7 +15435,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="26" t="s">
         <v>62</v>
       </c>
@@ -15494,7 +15494,7 @@
         <v>-9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -15524,14 +15524,14 @@
         <v>-8.7666666666666657E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B24" s="25"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -15563,7 +15563,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -15603,7 +15603,7 @@
         <v>58.02</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -15637,7 +15637,7 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -15671,7 +15671,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -15705,7 +15705,7 @@
         <v>38.200000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -15739,7 +15739,7 @@
         <v>65.94</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -15788,20 +15788,20 @@
       <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="2"/>
-    <col min="4" max="4" width="11.140625" style="2" customWidth="1"/>
-    <col min="5" max="7" width="8.85546875" style="2"/>
-    <col min="8" max="8" width="1.85546875" style="2" customWidth="1"/>
-    <col min="9" max="10" width="8.85546875" style="2"/>
-    <col min="11" max="11" width="2.140625" style="16" customWidth="1"/>
-    <col min="13" max="13" width="1.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" style="2"/>
+    <col min="4" max="4" width="11.1796875" style="2" customWidth="1"/>
+    <col min="5" max="7" width="8.81640625" style="2"/>
+    <col min="8" max="8" width="1.81640625" style="2" customWidth="1"/>
+    <col min="9" max="10" width="8.81640625" style="2"/>
+    <col min="11" max="11" width="2.1796875" style="16" customWidth="1"/>
+    <col min="13" max="13" width="1.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -15812,7 +15812,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="17"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>18</v>
       </c>
@@ -15823,7 +15823,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="17"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="E3" s="5"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -15838,7 +15838,7 @@
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="F4" s="3" t="s">
         <v>0</v>
       </c>
@@ -15866,7 +15866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="E5" s="2" t="s">
@@ -15909,7 +15909,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
         <v>19</v>
       </c>
@@ -15948,7 +15948,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="F7" s="3"/>
@@ -15966,7 +15966,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>20</v>
       </c>
@@ -16001,7 +16001,7 @@
       </c>
       <c r="S8" s="2"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>20</v>
       </c>
@@ -16033,7 +16033,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>20</v>
       </c>
@@ -16065,7 +16065,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>20</v>
       </c>
@@ -16097,7 +16097,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
         <v>20</v>
       </c>
@@ -16129,7 +16129,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>20</v>
       </c>
@@ -16170,7 +16170,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="H14" s="3"/>
       <c r="I14"/>
@@ -16192,7 +16192,7 @@
         <v>0.40717996717907567</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -16262,7 +16262,7 @@
         <v>3.2261395133136452</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -16323,7 +16323,7 @@
         <v>5.0214277049403648</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -16384,7 +16384,7 @@
         <v>4.2593838608294501</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -16453,7 +16453,7 @@
         <v>10.380577608097125</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -16514,7 +16514,7 @@
         <v>5.0214277049403533</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -16564,7 +16564,7 @@
         <v>93.667647140495376</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -16625,7 +16625,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -16686,7 +16686,7 @@
         <v>0.61472837401636615</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -16747,7 +16747,7 @@
         <v>0.46923246239412852</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -16816,7 +16816,7 @@
         <v>1.2929700501270427</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -16877,7 +16877,7 @@
         <v>1.1832106401095588</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -16938,7 +16938,7 @@
         <v>1.0806138612166751</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -17007,7 +17007,7 @@
         <v>5.7934059179462967</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -17057,7 +17057,7 @@
         <v>94.074014373209025</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -17110,7 +17110,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -17179,7 +17179,7 @@
         <v>2.7628604625270454</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -17240,7 +17240,7 @@
         <v>3.6770737490358081</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -17301,7 +17301,7 @@
         <v>6.0534152339013279</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -17370,7 +17370,7 @@
         <v>4.7441271705095955</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -17431,7 +17431,7 @@
         <v>17.444714113485862</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -17492,7 +17492,7 @@
         <v>5.7934059179462967</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -17550,7 +17550,7 @@
         <v>0.46923246239412852</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -17603,7 +17603,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -17664,7 +17664,7 @@
         <v>2.5455533376875259</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>25</v>
       </c>
@@ -17733,7 +17733,7 @@
         <v>0.23508546365945412</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>25</v>
       </c>
@@ -17794,7 +17794,7 @@
         <v>1.4268808620634776</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>25</v>
       </c>
@@ -17855,7 +17855,7 @@
         <v>3.0578881108079736</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -17924,7 +17924,7 @@
         <v>9.21292504374596</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -17985,7 +17985,7 @@
         <v>10.462623754341212</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -18035,7 +18035,7 @@
         <v>88.561642861448405</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>27</v>
       </c>
@@ -18096,7 +18096,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -18157,7 +18157,7 @@
         <v>0.61893149193949282</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -18218,7 +18218,7 @@
         <v>0.61893149193949282</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>28</v>
       </c>
@@ -18287,7 +18287,7 @@
         <v>2.746152348578609</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -18348,7 +18348,7 @@
         <v>6.1926044374348441</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -18409,7 +18409,7 @@
         <v>8.389709954061134</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>23</v>
       </c>
@@ -18478,7 +18478,7 @@
         <v>6.3342337510240405</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>23</v>
       </c>
@@ -18528,7 +18528,7 @@
         <v>75.735473895307607</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>23</v>
       </c>
@@ -18581,7 +18581,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>24</v>
       </c>
@@ -18650,7 +18650,7 @@
         <v>0.22737508588956956</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>24</v>
       </c>
@@ -18711,7 +18711,7 @@
         <v>0.22737508588956956</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>24</v>
       </c>
@@ -18772,7 +18772,7 @@
         <v>5.5618955250548305</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>25</v>
       </c>
@@ -18841,7 +18841,7 @@
         <v>1.6649685973266395</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>25</v>
       </c>
@@ -18902,7 +18902,7 @@
         <v>5.4844494412588256</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>25</v>
       </c>
@@ -18963,7 +18963,7 @@
         <v>6.0155207707207525</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>26</v>
       </c>
@@ -19021,7 +19021,7 @@
         <v>1.4268808620634776</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>26</v>
       </c>
@@ -19071,7 +19071,7 @@
         <v>81.435993435814638</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>26</v>
       </c>
@@ -19121,7 +19121,7 @@
         <v>80.50321064247612</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>27</v>
       </c>
@@ -19179,7 +19179,7 @@
         <v>2.746152348578609</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>27</v>
       </c>
@@ -19229,7 +19229,7 @@
         <v>82.492548240870093</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>27</v>
       </c>
@@ -19279,7 +19279,7 @@
         <v>87.950872910679806</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>28</v>
       </c>
@@ -19337,7 +19337,7 @@
         <v>5.5618955250548305</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>28</v>
       </c>
@@ -19387,7 +19387,7 @@
         <v>93.854982434776375</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>28</v>
       </c>
@@ -19437,7 +19437,7 @@
         <v>83.064713304530926</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>23</v>
       </c>
@@ -19494,7 +19494,7 @@
         <v>4.2593838608294501</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>23</v>
       </c>
@@ -19543,7 +19543,7 @@
         <v>81.2324034522251</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>23</v>
       </c>
@@ -19592,7 +19592,7 @@
         <v>73.958836353883569</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>24</v>
       </c>
@@ -19649,7 +19649,7 @@
         <v>1.1832106401095588</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>24</v>
       </c>
@@ -19698,7 +19698,7 @@
         <v>76.600223366522258</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>24</v>
       </c>
@@ -19747,7 +19747,7 @@
         <v>76.142653862486696</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>25</v>
       </c>
@@ -19804,7 +19804,7 @@
         <v>4.7441271705095955</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>25</v>
       </c>
@@ -19853,7 +19853,7 @@
         <v>67.795464535315674</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>25</v>
       </c>
@@ -19902,7 +19902,7 @@
         <v>65.352384732241248</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>26</v>
       </c>
@@ -19959,7 +19959,7 @@
         <v>3.0578881108079736</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>26</v>
       </c>
@@ -20008,7 +20008,7 @@
         <v>67.391117828345614</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>26</v>
       </c>
@@ -20057,7 +20057,7 @@
         <v>66.644226165037935</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>27</v>
       </c>
@@ -20090,7 +20090,7 @@
         <v>0.77058353317346118</v>
       </c>
       <c r="N81">
-        <f t="shared" ref="N81:N123" si="6">F81*R$8</f>
+        <f t="shared" ref="N81:N122" si="6">F81*R$8</f>
         <v>4.9118330006653359</v>
       </c>
       <c r="O81">
@@ -20114,7 +20114,7 @@
         <v>6.1926044374348441</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>27</v>
       </c>
@@ -20163,7 +20163,7 @@
         <v>72.333367423028974</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>27</v>
       </c>
@@ -20212,7 +20212,7 @@
         <v>84.693433173247229</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>28</v>
       </c>
@@ -20269,7 +20269,7 @@
         <v>1.6649685973266395</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>28</v>
       </c>
@@ -20318,7 +20318,7 @@
         <v>80.257528460945082</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>28</v>
       </c>
@@ -20367,7 +20367,7 @@
         <v>83.471893271710002</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>23</v>
       </c>
@@ -20424,7 +20424,7 @@
         <v>10.380577608097125</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>23</v>
       </c>
@@ -20473,7 +20473,7 @@
         <v>67.05059339775157</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>23</v>
       </c>
@@ -20522,7 +20522,7 @@
         <v>70.645724305569203</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>24</v>
       </c>
@@ -20579,7 +20579,7 @@
         <v>1.0806138612166751</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>24</v>
       </c>
@@ -20628,7 +20628,7 @@
         <v>63.520074879935422</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>24</v>
       </c>
@@ -20677,7 +20677,7 @@
         <v>63.596471919685584</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>25</v>
       </c>
@@ -20734,7 +20734,7 @@
         <v>17.444714113485862</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>25</v>
       </c>
@@ -20783,7 +20783,7 @@
         <v>46.622106242003881</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>25</v>
       </c>
@@ -20832,7 +20832,7 @@
         <v>18.286525472114064</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>26</v>
       </c>
@@ -20889,7 +20889,7 @@
         <v>9.21292504374596</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>26</v>
       </c>
@@ -20938,7 +20938,7 @@
         <v>41.125176685086387</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>26</v>
       </c>
@@ -20987,7 +20987,7 @@
         <v>38.604887107796358</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>27</v>
       </c>
@@ -21044,7 +21044,7 @@
         <v>8.389709954061134</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>27</v>
       </c>
@@ -21093,7 +21093,7 @@
         <v>51.304675864563229</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>27</v>
       </c>
@@ -21142,7 +21142,7 @@
         <v>63.316484896345884</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>28</v>
       </c>
@@ -21199,7 +21199,7 @@
         <v>5.4844494412588256</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>28</v>
       </c>
@@ -21248,7 +21248,7 @@
         <v>66.573924633778461</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>28</v>
       </c>
@@ -21297,7 +21297,7 @@
         <v>66.714247610515486</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>23</v>
       </c>
@@ -21354,7 +21354,7 @@
         <v>5.0214277049403533</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>23</v>
       </c>
@@ -21403,7 +21403,7 @@
         <v>76.34624384607622</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>23</v>
       </c>
@@ -21452,7 +21452,7 @@
         <v>67.184694584547074</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>24</v>
       </c>
@@ -21509,7 +21509,7 @@
         <v>5.7934059179462967</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>24</v>
       </c>
@@ -21558,7 +21558,7 @@
         <v>52.827740252773971</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>24</v>
       </c>
@@ -21607,7 +21607,7 @@
         <v>64.409206385112881</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>25</v>
       </c>
@@ -21664,7 +21664,7 @@
         <v>14.904139154918573</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>25</v>
       </c>
@@ -21713,7 +21713,7 @@
         <v>18.323098523058295</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>25</v>
       </c>
@@ -21762,7 +21762,7 @@
         <v>7.5177938052024489</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>26</v>
       </c>
@@ -21819,7 +21819,7 @@
         <v>10.462623754341212</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>26</v>
       </c>
@@ -21868,7 +21868,7 @@
         <v>39.700046799959637</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>26</v>
       </c>
@@ -21917,7 +21917,7 @@
         <v>32.777987357915393</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>27</v>
       </c>
@@ -21974,7 +21974,7 @@
         <v>6.3342337510240405</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>27</v>
       </c>
@@ -22018,7 +22018,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>27</v>
       </c>
@@ -22067,7 +22067,7 @@
         <v>63.723664863524945</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>28</v>
       </c>
@@ -22124,7 +22124,7 @@
         <v>6.0155207707207525</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>28</v>
       </c>
@@ -22173,7 +22173,7 @@
         <v>63.799655536042401</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>28</v>
       </c>
@@ -22222,19 +22222,19 @@
         <v>64.538024797883097</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
       <c r="R123" s="2"/>
       <c r="S123" s="2"/>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
       <c r="R126" s="2"/>
       <c r="S126" s="2"/>
     </row>
-    <row r="129" spans="18:19" x14ac:dyDescent="0.25">
+    <row r="129" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R129" s="2"/>
       <c r="S129" s="2"/>
     </row>
-    <row r="132" spans="18:19" x14ac:dyDescent="0.25">
+    <row r="132" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R132" s="2"/>
       <c r="S132" s="2"/>
     </row>
